--- a/画面定義書.xlsx
+++ b/画面定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetsuji\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papa\01.equinix\55.learning\03.payment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>yyyy/mm/dd</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>戻る</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
@@ -196,17 +192,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>subjectCode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>品目コード</t>
-    <rPh sb="0" eb="2">
-      <t>ヒンモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>品目名称</t>
     <rPh sb="0" eb="2">
       <t>ヒンモク</t>
@@ -217,10 +202,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>subjectName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ドロップのバリュー</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -283,18 +264,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>searchSubjectCode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>searchSubjectName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>searchPayDate</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -359,10 +328,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>subjectName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -406,6 +371,41 @@
     <t>支払画面</t>
     <rPh sb="0" eb="2">
       <t>シハライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>searchPayDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>searchId</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>searchItemName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト品目01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>品目ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンモク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -415,7 +415,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\/m\/d"/>
+    <numFmt numFmtId="176" formatCode="yyyy\/m\/d"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -634,7 +634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,22 +680,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,72 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -779,29 +794,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1091,9 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AU24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1197,67 +1201,62 @@
     </row>
     <row r="4" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="49"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="48" t="s">
+      <c r="AA4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="48" t="s">
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="44"/>
+      <c r="AM4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="50"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="44"/>
       <c r="AU4" s="6"/>
     </row>
     <row r="5" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="10"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -1271,32 +1270,27 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="16"/>
+      <c r="X5" s="41"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="53"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="47"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="47"/>
       <c r="AU5" s="6"/>
     </row>
     <row r="6" spans="2:47" x14ac:dyDescent="0.2">
@@ -1349,168 +1343,168 @@
     </row>
     <row r="7" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="23" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="24"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="24"/>
-      <c r="AT7" s="25"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="23"/>
+      <c r="AT7" s="24"/>
       <c r="AU7" s="6"/>
     </row>
-    <row r="8" spans="2:47" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="27"/>
-      <c r="C8" s="28">
+    <row r="8" spans="2:47" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="16"/>
+      <c r="C8" s="25">
         <v>43191</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="33"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="30"/>
       <c r="Y8" s="34">
-        <v>1</v>
+        <v>3800</v>
       </c>
       <c r="Z8" s="35"/>
       <c r="AA8" s="35"/>
       <c r="AB8" s="35"/>
       <c r="AC8" s="35"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="37">
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="31">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="34">
+        <f>AF8*Y8</f>
         <v>3800</v>
       </c>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="37">
-        <f>Y8*AE8</f>
-        <v>3800</v>
-      </c>
-      <c r="AM8" s="38"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="38"/>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="38"/>
-      <c r="AT8" s="39"/>
-      <c r="AU8" s="40"/>
-    </row>
-    <row r="9" spans="2:47" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="27"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="40"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="36"/>
+      <c r="AU8" s="17"/>
+    </row>
+    <row r="9" spans="2:47" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="16"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="39"/>
+      <c r="AU9" s="17"/>
     </row>
     <row r="10" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
@@ -1633,14 +1627,6 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
@@ -1681,14 +1667,6 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
@@ -1883,14 +1861,6 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
@@ -1931,14 +1901,6 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
@@ -2202,28 +2164,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AA4:AH5"/>
+    <mergeCell ref="AM4:AT5"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:X7"/>
+    <mergeCell ref="AF7:AK7"/>
+    <mergeCell ref="Y7:AE7"/>
+    <mergeCell ref="AL7:AT7"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="Y8:AE8"/>
+    <mergeCell ref="AL8:AT8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:X9"/>
+    <mergeCell ref="AF9:AK9"/>
+    <mergeCell ref="Y9:AE9"/>
+    <mergeCell ref="AL9:AT9"/>
+    <mergeCell ref="C8:J8"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="J4:Q4"/>
     <mergeCell ref="K8:X8"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="AE8:AK8"/>
-    <mergeCell ref="AL8:AT8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:X9"/>
-    <mergeCell ref="Y9:AD9"/>
-    <mergeCell ref="AE9:AK9"/>
-    <mergeCell ref="AL9:AT9"/>
-    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="AF8:AK8"/>
     <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AE4:AL5"/>
-    <mergeCell ref="AM4:AT5"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:X7"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="AE7:AK7"/>
-    <mergeCell ref="AL7:AT7"/>
-    <mergeCell ref="R4:S4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2239,7 +2201,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2247,53 +2209,53 @@
     <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="21" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="B3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="42" t="s">
+      <c r="D3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="E3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2302,25 +2264,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>42</v>
+      <c r="F4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I4" s="13"/>
     </row>
@@ -2330,28 +2292,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="13">
-        <v>10</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>44</v>
+      <c r="H5" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,28 +2322,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="13">
+        <v>10</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="13">
-        <v>50</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2390,28 +2352,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>42</v>
+      <c r="F7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2420,25 +2382,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="F8" s="13">
-        <v>50</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="I8" s="13"/>
     </row>
@@ -2448,25 +2410,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="F9" s="13">
         <v>3</v>
       </c>
-      <c r="G9" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>42</v>
+      <c r="G9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="I9" s="13"/>
     </row>
@@ -2476,25 +2438,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="13">
-        <v>9</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="I10" s="13"/>
     </row>
@@ -2504,25 +2466,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="13">
-        <v>12</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -2531,7 +2493,7 @@
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="43"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -2542,7 +2504,7 @@
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="43"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -2553,7 +2515,7 @@
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="43"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -2564,7 +2526,7 @@
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="43"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -2585,11 +2547,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AR14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="27" max="27" width="2.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2685,42 +2648,42 @@
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="5"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25">
+        <v>43191</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="49"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
-      <c r="AI4" s="48" t="s">
+      <c r="AI4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="50"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
       <c r="AR4" s="6"/>
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.2">
@@ -2733,28 +2696,30 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="53"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="47"/>
       <c r="AR5" s="6"/>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="10"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -2763,24 +2728,24 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="16"/>
+      <c r="T6" s="41"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="AI6" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="49"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="50"/>
+      <c r="AI6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="43"/>
+      <c r="AP6" s="44"/>
       <c r="AR6" s="6"/>
     </row>
     <row r="7" spans="2:44" x14ac:dyDescent="0.2">
@@ -2804,122 +2769,129 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="52"/>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="52"/>
-      <c r="AO7" s="52"/>
-      <c r="AP7" s="53"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="47"/>
       <c r="AR7" s="6"/>
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
+      <c r="C8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="55">
+        <v>3800</v>
+      </c>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="57"/>
       <c r="AR8" s="6"/>
     </row>
     <row r="9" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="AQ9" s="5"/>
+      <c r="C9" s="15"/>
       <c r="AR9" s="6"/>
     </row>
     <row r="10" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
-      <c r="C10" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12"/>
+      <c r="C10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="55">
+        <v>1</v>
+      </c>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
       <c r="AR10" s="6"/>
     </row>
     <row r="11" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
-      <c r="C11" s="26"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="AQ11" s="5"/>
       <c r="AR11" s="6"/>
     </row>
     <row r="12" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="55">
+        <f>J8*J10</f>
+        <v>3800</v>
+      </c>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
       <c r="AR12" s="6"/>
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.2">
@@ -2972,16 +2944,20 @@
       <c r="AR14" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="AI4:AP5"/>
     <mergeCell ref="AI6:AP7"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C10:I10"/>
     <mergeCell ref="S6:T6"/>
-    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="J8:R8"/>
+    <mergeCell ref="J10:R10"/>
+    <mergeCell ref="J12:R12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2994,7 +2970,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3002,53 +2978,53 @@
     <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="21" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="B3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="42" t="s">
+      <c r="D3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="E3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3057,28 +3033,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>52</v>
+      <c r="F4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3087,28 +3063,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="13">
-        <v>10</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3117,28 +3093,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>31</v>
+        <v>56</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="13">
-        <v>50</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3147,25 +3123,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="13">
         <v>3</v>
       </c>
-      <c r="G7" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>43</v>
+      <c r="G7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="I7" s="13"/>
     </row>
@@ -3175,25 +3151,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="F8" s="13">
-        <v>9</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>43</v>
+        <v>7</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="I8" s="13"/>
     </row>
@@ -3203,28 +3179,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="F9" s="13">
-        <v>12</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3232,7 +3208,7 @@
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="43"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -3243,7 +3219,7 @@
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="43"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -3254,7 +3230,7 @@
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="43"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -3265,7 +3241,7 @@
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="43"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
